--- a/biology/Botanique/Salix_schwerinii/Salix_schwerinii.xlsx
+++ b/biology/Botanique/Salix_schwerinii/Salix_schwerinii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix schwerinii est une espèce de saules originaire d'Asie.
 </t>
@@ -511,14 +523,16 @@
           <t>Synonymie et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix dailingensis Y.L. Chou &amp; C.Y. King
 Salix gmelinii Pall
 Salix petsusu kimura
 Salix viminalis var. gmelinii Turcz
 Salix viminalis var. yezoensis Schneid
-Salix yezoensis kimura[1]</t>
+Salix yezoensis kimura</t>
         </is>
       </c>
     </row>
@@ -546,10 +560,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste ou un arbre de 10 à 15 mètres de haut avec de longues feuilles caduques exceptionnellement étroites, proche de Salix viminalis. Il est cultivé le long des rivières. C'est une espèce rencontrée au nord-est de l'Asie, de Kolyma au nord-est de la Chine, à une altitude de 300 à 600 m, dans le Hebei, Heilongjiang, Jilin, Liaoning, E Nei Mongol (Japon), Corée, Mongolie, Russie (Est de la Sibérie))[2].
-Les branches sont coupées tous les ans ou tous les deux ans pour être utilisées en vannerie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste ou un arbre de 10 à 15 mètres de haut avec de longues feuilles caduques exceptionnellement étroites, proche de Salix viminalis. Il est cultivé le long des rivières. C'est une espèce rencontrée au nord-est de l'Asie, de Kolyma au nord-est de la Chine, à une altitude de 300 à 600 m, dans le Hebei, Heilongjiang, Jilin, Liaoning, E Nei Mongol (Japon), Corée, Mongolie, Russie (Est de la Sibérie)).
+Les branches sont coupées tous les ans ou tous les deux ans pour être utilisées en vannerie.
 Le cultivar Kinuyanagi a été développé en Nouvelle-Zélande comme arbre fourrager et anti-érosion.
 </t>
         </is>
